--- a/2ndyear.xlsx
+++ b/2ndyear.xlsx
@@ -302,21 +302,9 @@
     <t>https://www.facebook.com/robin.tanty.3</t>
   </si>
   <si>
-    <t>https://www.facebook.com/milind.mohapatra?ref=br_rs</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/angel.sradha.5?ref=br_rs</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/supriya.muduli.96</t>
   </si>
   <si>
-    <t>https://www.facebook.com/suman.dash.56?ref=br_rs</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/dipali.kataruka.9?ref=br_rs</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/ms.atul1305</t>
   </si>
   <si>
@@ -344,9 +332,6 @@
     <t>https://www.facebook.com/srimant.nahak.7</t>
   </si>
   <si>
-    <t>https://www.facebook.com/sneha.mukherjee.77128?ref=br_rs</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/profile.php?id=100012713460074</t>
   </si>
   <si>
@@ -423,6 +408,21 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/zadjiya-pattnaik-27b868134/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/milind.mohapatra</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/angel.sradha.5</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/suman.dash.56</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/dipali.kataruka.9</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sneha.mukherjee.77128</t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -540,6 +540,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -823,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,7 +868,7 @@
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -882,7 +883,7 @@
         <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -913,7 +914,7 @@
         <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -930,7 +931,7 @@
         <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -952,7 +953,7 @@
         <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -983,7 +984,7 @@
         <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -997,7 +998,7 @@
         <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1014,7 +1015,7 @@
         <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1033,7 +1034,7 @@
         <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1050,7 +1051,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1060,11 +1061,11 @@
       <c r="C16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1074,11 +1075,11 @@
       <c r="C17" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D17" t="s">
-        <v>93</v>
+      <c r="D17" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1092,10 +1093,10 @@
         <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1109,7 +1110,7 @@
         <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -1120,11 +1121,11 @@
         <v>37</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" t="s">
-        <v>95</v>
+      <c r="D20" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1137,11 +1138,11 @@
       <c r="C21" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D21" t="s">
-        <v>96</v>
+      <c r="D21" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1155,10 +1156,10 @@
         <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -1183,7 +1184,7 @@
         <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1195,7 +1196,7 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1209,10 +1210,10 @@
         <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1226,10 +1227,10 @@
         <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1241,10 +1242,10 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -1254,8 +1255,8 @@
       <c r="C29" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D29" t="s">
-        <v>103</v>
+      <c r="D29" s="10" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1269,7 +1270,7 @@
         <v>74</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -1283,10 +1284,10 @@
         <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1302,11 +1303,11 @@
         <v>48</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" t="s">
-        <v>106</v>
+      <c r="D33" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="E33" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1320,10 +1321,10 @@
         <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E34" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -1335,10 +1336,10 @@
       </c>
       <c r="C35" s="1"/>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E35" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1352,7 +1353,7 @@
         <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1363,7 +1364,7 @@
         <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1371,10 +1372,10 @@
         <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E38" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1397,8 +1398,14 @@
     <hyperlink ref="C34" r:id="rId16"/>
     <hyperlink ref="C36" r:id="rId17"/>
     <hyperlink ref="D2" r:id="rId18"/>
+    <hyperlink ref="D29" r:id="rId19"/>
+    <hyperlink ref="D20" r:id="rId20"/>
+    <hyperlink ref="D21" r:id="rId21"/>
+    <hyperlink ref="D33" r:id="rId22"/>
+    <hyperlink ref="D16" r:id="rId23"/>
+    <hyperlink ref="D17" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
--- a/2ndyear.xlsx
+++ b/2ndyear.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="132">
   <si>
     <t>Rohan Sharma</t>
   </si>
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>LinkedIn</t>
-  </si>
-  <si>
-    <t>Sila Puja</t>
   </si>
   <si>
     <t>Zadziya Pattnaik</t>
@@ -824,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,10 +862,10 @@
         <v>52</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -880,10 +877,10 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -897,7 +894,7 @@
         <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -911,10 +908,10 @@
         <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -928,10 +925,10 @@
         <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -950,10 +947,10 @@
         <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -967,7 +964,7 @@
         <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -981,10 +978,10 @@
         <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -998,7 +995,7 @@
         <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1012,10 +1009,10 @@
         <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1034,7 +1031,7 @@
         <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1048,7 +1045,7 @@
         <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1062,7 +1059,7 @@
         <v>63</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1076,10 +1073,10 @@
         <v>64</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1093,10 +1090,10 @@
         <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1110,7 +1107,7 @@
         <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -1122,10 +1119,10 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1139,10 +1136,10 @@
         <v>67</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1156,10 +1153,10 @@
         <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -1184,7 +1181,7 @@
         <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1196,7 +1193,7 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1210,10 +1207,10 @@
         <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1227,10 +1224,10 @@
         <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1242,7 +1239,7 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1256,7 +1253,7 @@
         <v>73</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1270,7 +1267,7 @@
         <v>74</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -1284,10 +1281,10 @@
         <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1304,13 +1301,13 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E33" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1321,10 +1318,10 @@
         <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -1336,13 +1333,13 @@
       </c>
       <c r="C35" s="1"/>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>31</v>
       </c>
@@ -1353,29 +1350,29 @@
         <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/2ndyear.xlsx
+++ b/2ndyear.xlsx
@@ -822,7 +822,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
